--- a/h1DataBase.xlsx
+++ b/h1DataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t xml:space="preserve">
 Data-Driven Growth Experts:
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>https://www.clipconverter.cc/tr/</t>
+  </si>
+  <si>
+    <t>Euro kuru</t>
+  </si>
+  <si>
+    <t>http://euro.tlkur.com</t>
+  </si>
+  <si>
+    <t>http://euro.tlkur.com/</t>
   </si>
 </sst>
 </file>
@@ -380,7 +389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N8" sqref="M8:N8"/>
@@ -431,9 +440,30 @@
       <c r="A4" s="2" t="n">
         <v>43157.47836906996</v>
       </c>
-      <c r="C4" t="s"/>
       <c r="I4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="2" t="n">
+        <v>43158.08285303263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="2" t="n">
+        <v>43158.09071728615</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/h1DataBase.xlsx
+++ b/h1DataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t xml:space="preserve">
 Data-Driven Growth Experts:
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>http://euro.tlkur.com/</t>
+  </si>
+  <si>
+    <t>https://ubersem.com</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N8" sqref="M8:N8"/>
@@ -466,6 +469,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="2" t="n">
+        <v>43181.11416989443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
